--- a/mosip_master/xlsx/machine_spec.xlsx
+++ b/mosip_master/xlsx/machine_spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C32D9E-E4A3-4778-BEBB-461C12B4F221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E8CC0B-3696-442B-9F21-6CA6653F318B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>lang_code</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>RESIDENT-1</t>
+  </si>
+  <si>
+    <t>por</t>
+  </si>
+  <si>
+    <t>RESIDENTE-1</t>
+  </si>
+  <si>
+    <t>Máquina Virtual Residente</t>
   </si>
 </sst>
 </file>
@@ -129,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -138,6 +147,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,26 +464,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -526,6 +538,35 @@
         <v>10</v>
       </c>
       <c r="I2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="b">
         <v>1</v>
       </c>
     </row>
